--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c204_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c204_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1289,10 +1301,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1336,28 +1348,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1382,28 +1394,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2419,10 +2431,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="J79" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2466,28 +2478,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2512,28 +2524,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2911,10 +2923,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2958,28 +2970,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3004,28 +3016,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3113,10 +3125,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
+      <c r="J103" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3160,28 +3172,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3206,28 +3218,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3344,10 +3356,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
+      <c r="J111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K111" s="2" t="s">
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3391,28 +3403,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3437,28 +3449,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3517,10 +3529,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="J117" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3564,28 +3576,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3610,28 +3622,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3748,10 +3760,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="J125" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3795,28 +3807,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3841,28 +3853,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4008,10 +4020,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
+      <c r="J134" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K134" s="2" t="s">
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4055,28 +4067,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4101,28 +4113,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4181,10 +4193,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
+      <c r="J140" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="2" t="s">
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4228,28 +4240,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4274,28 +4286,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4412,10 +4424,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
+      <c r="J148" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K148" s="2" t="s">
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4459,28 +4471,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4505,28 +4517,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4643,10 +4655,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
